--- a/YsProject/Excels/WbsTemplate.xlsx
+++ b/YsProject/Excels/WbsTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\YsProject\YsProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\YsProject\YsProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3913FCF-B525-4306-8235-B2B981D3171E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2310" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wbs" sheetId="2" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,12 +53,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,12 +126,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -165,12 +166,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -287,7 +288,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -305,7 +306,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -340,7 +341,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -352,7 +353,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -401,7 +402,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -422,7 +423,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -449,7 +450,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -460,7 +461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -476,7 +477,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -487,7 +488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -503,7 +504,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -514,7 +515,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -530,7 +531,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -561,7 +562,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -964,7 +965,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -981,7 +982,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -992,7 +993,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1013,7 +1014,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1027,7 +1028,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1038,7 +1039,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1052,7 +1053,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1063,7 +1064,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1157,7 +1158,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1182,7 +1183,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1199,7 +1200,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1210,7 +1211,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1227,7 +1228,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1238,7 +1239,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1255,7 +1256,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1266,7 +1267,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1283,7 +1284,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1294,7 +1295,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1311,7 +1312,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1322,7 +1323,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1339,7 +1340,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1350,7 +1351,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1367,7 +1368,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1378,120 +1379,6 @@
   </si>
   <si>
     <t>担当者</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>预</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>定开始</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>预</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>定</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>实际</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开始</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>实际终</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>度</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1503,7 +1390,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1512,16 +1399,36 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>预定开始</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>预定终了</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>实际开始</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>实际终了</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1529,7 +1436,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1538,14 +1445,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1554,7 +1461,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1562,7 +1469,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1570,7 +1477,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1586,7 +1493,7 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1594,7 +1501,7 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1602,7 +1509,7 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1929,7 +1836,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2206,40 +2113,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="3.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="45" width="3.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="3.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="75" width="3.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="45" width="3.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="75" width="3.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="76" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="14.25" customHeight="1">
+    <row r="1" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O1" s="34" t="s">
         <v>190</v>
       </c>
@@ -2306,7 +2213,7 @@
       <c r="BV1" s="34"/>
       <c r="BW1" s="34"/>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="O2" s="16" t="s">
         <v>183</v>
       </c>
@@ -2491,7 +2398,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>136</v>
       </c>
@@ -2517,19 +2424,19 @@
         <v>203</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>178</v>
@@ -2718,7 +2625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>137</v>
       </c>
@@ -2813,7 +2720,7 @@
       <c r="BV4" s="21"/>
       <c r="BW4" s="21"/>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
@@ -2906,7 +2813,7 @@
       <c r="BV5" s="26"/>
       <c r="BW5" s="26"/>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>139</v>
       </c>
@@ -2997,7 +2904,7 @@
       <c r="BV6" s="26"/>
       <c r="BW6" s="26"/>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>140</v>
       </c>
@@ -3088,7 +2995,7 @@
       <c r="BV7" s="26"/>
       <c r="BW7" s="26"/>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>141</v>
       </c>
@@ -3179,7 +3086,7 @@
       <c r="BV8" s="26"/>
       <c r="BW8" s="26"/>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>142</v>
       </c>
@@ -3270,7 +3177,7 @@
       <c r="BV9" s="26"/>
       <c r="BW9" s="26"/>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>143</v>
       </c>
@@ -3361,7 +3268,7 @@
       <c r="BV10" s="26"/>
       <c r="BW10" s="26"/>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>144</v>
       </c>
@@ -3452,7 +3359,7 @@
       <c r="BV11" s="26"/>
       <c r="BW11" s="26"/>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>145</v>
       </c>
@@ -3543,7 +3450,7 @@
       <c r="BV12" s="26"/>
       <c r="BW12" s="26"/>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>146</v>
       </c>
@@ -3634,7 +3541,7 @@
       <c r="BV13" s="26"/>
       <c r="BW13" s="26"/>
     </row>
-    <row r="14" spans="1:75">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>147</v>
       </c>
@@ -3725,7 +3632,7 @@
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
     </row>
-    <row r="15" spans="1:75">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>148</v>
       </c>
@@ -3816,7 +3723,7 @@
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
     </row>
-    <row r="16" spans="1:75">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>149</v>
       </c>
@@ -3903,7 +3810,7 @@
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
     </row>
-    <row r="17" spans="1:75">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>150</v>
       </c>
@@ -3990,7 +3897,7 @@
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
     </row>
-    <row r="18" spans="1:75">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>151</v>
       </c>
@@ -4077,7 +3984,7 @@
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
     </row>
-    <row r="19" spans="1:75">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>152</v>
       </c>
@@ -4164,7 +4071,7 @@
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
     </row>
-    <row r="20" spans="1:75">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>153</v>
       </c>
@@ -4251,7 +4158,7 @@
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
     </row>
-    <row r="21" spans="1:75">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>154</v>
       </c>
@@ -4338,7 +4245,7 @@
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
     </row>
-    <row r="22" spans="1:75">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>155</v>
       </c>
@@ -4425,7 +4332,7 @@
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
     </row>
-    <row r="23" spans="1:75">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>156</v>
       </c>
@@ -4512,7 +4419,7 @@
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
     </row>
-    <row r="24" spans="1:75">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>157</v>
       </c>
@@ -4599,7 +4506,7 @@
       <c r="BV24" s="26"/>
       <c r="BW24" s="26"/>
     </row>
-    <row r="25" spans="1:75">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>158</v>
       </c>
@@ -4686,7 +4593,7 @@
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
     </row>
-    <row r="26" spans="1:75">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>159</v>
       </c>
@@ -4773,7 +4680,7 @@
       <c r="BV26" s="26"/>
       <c r="BW26" s="26"/>
     </row>
-    <row r="27" spans="1:75">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>160</v>
       </c>
@@ -4860,7 +4767,7 @@
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
     </row>
-    <row r="28" spans="1:75">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>161</v>
       </c>
@@ -4947,7 +4854,7 @@
       <c r="BV28" s="26"/>
       <c r="BW28" s="26"/>
     </row>
-    <row r="29" spans="1:75">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>162</v>
       </c>
@@ -5034,7 +4941,7 @@
       <c r="BV29" s="26"/>
       <c r="BW29" s="26"/>
     </row>
-    <row r="30" spans="1:75">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>163</v>
       </c>
@@ -5121,7 +5028,7 @@
       <c r="BV30" s="26"/>
       <c r="BW30" s="26"/>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>164</v>
       </c>
@@ -5208,7 +5115,7 @@
       <c r="BV31" s="26"/>
       <c r="BW31" s="26"/>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>171</v>
       </c>
@@ -5295,7 +5202,7 @@
       <c r="BV32" s="26"/>
       <c r="BW32" s="26"/>
     </row>
-    <row r="33" spans="1:75">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>172</v>
       </c>
@@ -5382,7 +5289,7 @@
       <c r="BV33" s="26"/>
       <c r="BW33" s="26"/>
     </row>
-    <row r="34" spans="1:75">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>173</v>
       </c>
@@ -5469,7 +5376,7 @@
       <c r="BV34" s="26"/>
       <c r="BW34" s="26"/>
     </row>
-    <row r="35" spans="1:75">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>174</v>
       </c>
@@ -5556,7 +5463,7 @@
       <c r="BV35" s="26"/>
       <c r="BW35" s="26"/>
     </row>
-    <row r="36" spans="1:75">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>175</v>
       </c>
@@ -5643,7 +5550,7 @@
       <c r="BV36" s="26"/>
       <c r="BW36" s="26"/>
     </row>
-    <row r="37" spans="1:75">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>176</v>
       </c>
@@ -5730,7 +5637,7 @@
       <c r="BV37" s="26"/>
       <c r="BW37" s="26"/>
     </row>
-    <row r="38" spans="1:75">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>177</v>
       </c>
@@ -5834,31 +5741,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -5885,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>64</v>
       </c>
@@ -5904,7 +5811,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>139002</v>
       </c>
@@ -5923,7 +5830,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>74</v>
       </c>
@@ -5942,7 +5849,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>139004</v>
       </c>
@@ -5959,7 +5866,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>139005</v>
       </c>
@@ -5976,7 +5883,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>139006</v>
       </c>
@@ -5993,7 +5900,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>139007</v>
       </c>
@@ -6010,7 +5917,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>139008</v>
       </c>
@@ -6027,7 +5934,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>139009</v>
       </c>
@@ -6044,7 +5951,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>139010</v>
       </c>
@@ -6061,7 +5968,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>139011</v>
       </c>
@@ -6078,7 +5985,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>139012</v>
       </c>
@@ -6095,7 +6002,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -6114,7 +6021,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>139014</v>
       </c>
@@ -6131,7 +6038,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="13.5">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>139015</v>
       </c>
@@ -6148,7 +6055,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>139016</v>
       </c>
@@ -6165,7 +6072,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>139017</v>
       </c>
@@ -6182,7 +6089,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>139018</v>
       </c>
@@ -6199,7 +6106,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>139019</v>
       </c>
@@ -6216,7 +6123,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
@@ -6235,7 +6142,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>139021</v>
       </c>
@@ -6252,7 +6159,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>139022</v>
       </c>
@@ -6269,7 +6176,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>139023</v>
       </c>
@@ -6286,7 +6193,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>139024</v>
       </c>
@@ -6303,7 +6210,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>139025</v>
       </c>
@@ -6333,7 +6240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6343,16 +6250,16 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -6372,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>67</v>
       </c>
@@ -6386,7 +6293,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>68</v>
       </c>
@@ -6400,7 +6307,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>69</v>
       </c>
@@ -6414,7 +6321,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
@@ -6428,7 +6335,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>71</v>
       </c>
@@ -6453,19 +6360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
@@ -6485,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
@@ -6501,7 +6408,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>86</v>
       </c>
@@ -6517,7 +6424,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -6533,7 +6440,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>86</v>
       </c>
@@ -6549,7 +6456,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>86</v>
       </c>
@@ -6565,7 +6472,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>86</v>
       </c>
@@ -6581,7 +6488,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
@@ -6597,7 +6504,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>86</v>
       </c>
@@ -6613,7 +6520,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>86</v>
       </c>
@@ -6629,7 +6536,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>86</v>
       </c>
@@ -6645,7 +6552,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
@@ -6661,7 +6568,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>86</v>
       </c>
@@ -6677,7 +6584,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>87</v>
       </c>
@@ -6693,7 +6600,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -6709,7 +6616,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -6725,7 +6632,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6741,7 +6648,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6757,7 +6664,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6773,7 +6680,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6789,7 +6696,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>87</v>
       </c>
@@ -6805,7 +6712,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
@@ -6821,7 +6728,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>87</v>
       </c>
@@ -6837,7 +6744,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>87</v>
       </c>
@@ -6853,7 +6760,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>87</v>
       </c>
